--- a/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_sanandaj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="8">
   <si>
     <t>Rain</t>
   </si>
@@ -45,12 +50,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -138,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:AA388"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AE388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -467,7 +472,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -547,7 +552,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -627,7 +632,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -704,7 +709,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -784,7 +789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -864,7 +869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -941,7 +946,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1409,7 +1414,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2336,7 +2341,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2792,7 +2797,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3029,7 +3034,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3106,7 +3111,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3183,7 +3188,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3331,7 +3336,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3408,7 +3413,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3482,7 +3487,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3559,7 +3564,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3716,7 +3721,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3790,7 +3795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4104,7 +4109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4178,7 +4183,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4255,7 +4260,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4332,7 +4337,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4643,7 +4648,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4720,7 +4725,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4797,7 +4802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4948,7 +4953,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5025,7 +5030,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5336,7 +5341,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5410,7 +5415,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5487,7 +5492,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5641,7 +5646,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5718,7 +5723,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5798,7 +5803,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5875,7 +5880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -5955,7 +5960,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6032,7 +6037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6109,7 +6114,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6186,7 +6191,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6260,7 +6265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6417,7 +6422,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6565,7 +6570,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6642,7 +6647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6719,7 +6724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6796,7 +6801,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6870,7 +6875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -6944,7 +6949,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7095,7 +7100,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7246,7 +7251,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7323,7 +7328,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7400,7 +7405,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7551,7 +7556,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7625,7 +7630,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7773,7 +7778,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -7921,7 +7926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8072,7 +8077,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8146,7 +8151,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8223,7 +8228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8300,7 +8305,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8377,7 +8382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8454,7 +8459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8531,7 +8536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8608,7 +8613,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8685,7 +8690,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8762,7 +8767,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8839,7 +8844,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8916,7 +8921,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -8993,7 +8998,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9147,7 +9152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9224,7 +9229,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9301,7 +9306,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9378,7 +9383,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9455,7 +9460,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9532,7 +9537,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9609,7 +9614,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9686,7 +9691,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9763,7 +9768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9840,7 +9845,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9920,7 +9925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -9997,7 +10002,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10074,7 +10079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10151,7 +10156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10228,7 +10233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10305,7 +10310,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10379,7 +10384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10456,7 +10461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10533,7 +10538,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10610,7 +10615,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10687,7 +10692,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10764,7 +10769,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10841,7 +10846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -10995,7 +11000,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11072,7 +11077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11152,7 +11157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11229,7 +11234,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11306,7 +11311,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11383,7 +11388,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11460,7 +11465,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11534,7 +11539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11611,7 +11616,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11688,7 +11693,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11765,7 +11770,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11842,7 +11847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11916,7 +11921,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -11990,7 +11995,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12064,7 +12069,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12138,7 +12143,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12215,7 +12220,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12289,7 +12294,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12363,7 +12368,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12437,7 +12442,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12511,7 +12516,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12588,7 +12593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12665,7 +12670,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12742,7 +12747,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12819,7 +12824,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12896,7 +12901,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -12976,7 +12981,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13053,7 +13058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13130,7 +13135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13207,7 +13212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13281,7 +13286,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13358,7 +13363,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13438,7 +13443,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13515,7 +13520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13595,7 +13600,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13675,7 +13680,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13752,7 +13757,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13829,7 +13834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13906,7 +13911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -13983,7 +13988,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14060,7 +14065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14140,7 +14145,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14217,7 +14222,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14297,7 +14302,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14374,7 +14379,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14451,7 +14456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14525,7 +14530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14599,7 +14604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14676,7 +14681,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14750,7 +14755,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14824,7 +14829,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14898,7 +14903,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -14975,7 +14980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -15052,7 +15057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15129,7 +15134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15206,7 +15211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15283,7 +15288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15360,7 +15365,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15437,7 +15442,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15517,7 +15522,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15594,7 +15599,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15671,7 +15676,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15748,7 +15753,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15831,7 +15836,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15908,7 +15913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -15985,7 +15990,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -16062,7 +16067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16139,7 +16144,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16213,7 +16218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16287,7 +16292,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16364,7 +16369,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16441,7 +16446,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16521,7 +16526,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16598,7 +16603,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16675,7 +16680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16749,7 +16754,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16826,7 +16831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16903,7 +16908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -16983,7 +16988,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -17060,7 +17065,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17137,7 +17142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17211,7 +17216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17291,7 +17296,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17371,7 +17376,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17451,7 +17456,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17531,7 +17536,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17611,7 +17616,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17688,7 +17693,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17768,7 +17773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17845,7 +17850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17922,7 +17927,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -17996,7 +18001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -18076,7 +18081,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18153,7 +18158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18230,7 +18235,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18310,7 +18315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18390,7 +18395,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18470,7 +18475,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18550,7 +18555,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18627,7 +18632,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18701,7 +18706,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18778,7 +18783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18852,7 +18857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18929,7 +18934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -19009,7 +19014,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -19089,7 +19094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19169,7 +19174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19246,7 +19251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19323,7 +19328,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19397,7 +19402,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19471,7 +19476,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19545,7 +19550,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19619,7 +19624,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19693,7 +19698,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19770,7 +19775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19847,7 +19852,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19924,7 +19929,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -20001,7 +20006,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20081,7 +20086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20158,7 +20163,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20238,7 +20243,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20315,7 +20320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20392,7 +20397,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20472,7 +20477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20552,7 +20557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20626,7 +20631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20700,7 +20705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20777,7 +20782,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20854,7 +20859,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20931,7 +20936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -21011,7 +21016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21091,7 +21096,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21171,7 +21176,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21248,7 +21253,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21325,7 +21330,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21405,7 +21410,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21482,7 +21487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21559,7 +21564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21636,7 +21641,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21710,7 +21715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21784,7 +21789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21861,7 +21866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21938,7 +21943,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -22012,7 +22017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22089,7 +22094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22166,7 +22171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22246,7 +22251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22326,7 +22331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22403,7 +22408,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22483,7 +22488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22566,7 +22571,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22643,7 +22648,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22720,7 +22725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22797,7 +22802,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22874,7 +22879,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22951,7 +22956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -23031,7 +23036,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23111,7 +23116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23188,7 +23193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23262,7 +23267,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23339,7 +23344,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23413,7 +23418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23487,7 +23492,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23564,7 +23569,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23641,7 +23646,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23715,7 +23720,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23792,7 +23797,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23872,7 +23877,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23949,7 +23954,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -24023,7 +24028,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24100,7 +24105,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24180,7 +24185,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24260,7 +24265,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24340,7 +24345,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24420,7 +24425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24497,7 +24502,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24574,7 +24579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24651,7 +24656,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24725,7 +24730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24802,7 +24807,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24882,7 +24887,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24959,7 +24964,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -25036,7 +25041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25110,7 +25115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25184,7 +25189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25264,7 +25269,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25344,7 +25349,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25424,7 +25429,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25501,7 +25506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25578,7 +25583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25655,7 +25660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25732,7 +25737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25806,7 +25811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25883,7 +25888,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25960,7 +25965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -26037,7 +26042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26114,7 +26119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26188,7 +26193,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26265,7 +26270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26342,7 +26347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26419,7 +26424,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26496,7 +26501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26576,7 +26581,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26656,7 +26661,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26733,7 +26738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26807,7 +26812,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26884,7 +26889,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26964,7 +26969,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -27041,7 +27046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27118,7 +27123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27192,7 +27197,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27269,7 +27274,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27349,7 +27354,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27426,7 +27431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27503,7 +27508,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27580,7 +27585,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27654,7 +27659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27728,7 +27733,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27802,7 +27807,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27882,7 +27887,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27959,7 +27964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -28036,7 +28041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28116,7 +28121,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28196,7 +28201,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28276,7 +28281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28356,7 +28361,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28436,7 +28441,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28511,1468 +28516,6 @@
       </c>
       <c r="AA365">
         <v>198</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>13</v>
-      </c>
-      <c r="G366">
-        <v>6</v>
-      </c>
-      <c r="H366">
-        <v>-2</v>
-      </c>
-      <c r="I366">
-        <v>5</v>
-      </c>
-      <c r="J366">
-        <v>-1</v>
-      </c>
-      <c r="K366">
-        <v>-4</v>
-      </c>
-      <c r="L366">
-        <v>87</v>
-      </c>
-      <c r="M366">
-        <v>63</v>
-      </c>
-      <c r="N366">
-        <v>33</v>
-      </c>
-      <c r="O366">
-        <v>1020</v>
-      </c>
-      <c r="P366">
-        <v>1016</v>
-      </c>
-      <c r="Q366">
-        <v>1012</v>
-      </c>
-      <c r="R366">
-        <v>14</v>
-      </c>
-      <c r="S366">
-        <v>9</v>
-      </c>
-      <c r="T366">
-        <v>6</v>
-      </c>
-      <c r="U366">
-        <v>35</v>
-      </c>
-      <c r="V366">
-        <v>11</v>
-      </c>
-      <c r="X366">
-        <v>7.87</v>
-      </c>
-      <c r="Y366">
-        <v>6</v>
-      </c>
-      <c r="Z366" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA366">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>18</v>
-      </c>
-      <c r="G367">
-        <v>12</v>
-      </c>
-      <c r="H367">
-        <v>6</v>
-      </c>
-      <c r="I367">
-        <v>5</v>
-      </c>
-      <c r="J367">
-        <v>2</v>
-      </c>
-      <c r="K367">
-        <v>-3</v>
-      </c>
-      <c r="L367">
-        <v>93</v>
-      </c>
-      <c r="M367">
-        <v>57</v>
-      </c>
-      <c r="N367">
-        <v>18</v>
-      </c>
-      <c r="O367">
-        <v>1014</v>
-      </c>
-      <c r="P367">
-        <v>1012</v>
-      </c>
-      <c r="Q367">
-        <v>1007</v>
-      </c>
-      <c r="R367">
-        <v>10</v>
-      </c>
-      <c r="S367">
-        <v>9</v>
-      </c>
-      <c r="T367">
-        <v>6</v>
-      </c>
-      <c r="U367">
-        <v>35</v>
-      </c>
-      <c r="V367">
-        <v>13</v>
-      </c>
-      <c r="X367">
-        <v>1.02</v>
-      </c>
-      <c r="Y367">
-        <v>3</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>13</v>
-      </c>
-      <c r="G368">
-        <v>8</v>
-      </c>
-      <c r="H368">
-        <v>3</v>
-      </c>
-      <c r="I368">
-        <v>3</v>
-      </c>
-      <c r="J368">
-        <v>-1</v>
-      </c>
-      <c r="K368">
-        <v>-7</v>
-      </c>
-      <c r="L368">
-        <v>93</v>
-      </c>
-      <c r="M368">
-        <v>60</v>
-      </c>
-      <c r="N368">
-        <v>15</v>
-      </c>
-      <c r="O368">
-        <v>1015</v>
-      </c>
-      <c r="P368">
-        <v>1012</v>
-      </c>
-      <c r="Q368">
-        <v>1009</v>
-      </c>
-      <c r="R368">
-        <v>10</v>
-      </c>
-      <c r="S368">
-        <v>10</v>
-      </c>
-      <c r="T368">
-        <v>8</v>
-      </c>
-      <c r="U368">
-        <v>23</v>
-      </c>
-      <c r="V368">
-        <v>6</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>4</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA368">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>14</v>
-      </c>
-      <c r="G369">
-        <v>8</v>
-      </c>
-      <c r="H369">
-        <v>1</v>
-      </c>
-      <c r="I369">
-        <v>2</v>
-      </c>
-      <c r="J369">
-        <v>-1</v>
-      </c>
-      <c r="K369">
-        <v>-7</v>
-      </c>
-      <c r="L369">
-        <v>93</v>
-      </c>
-      <c r="M369">
-        <v>63</v>
-      </c>
-      <c r="N369">
-        <v>16</v>
-      </c>
-      <c r="O369">
-        <v>1021</v>
-      </c>
-      <c r="P369">
-        <v>1017</v>
-      </c>
-      <c r="Q369">
-        <v>1015</v>
-      </c>
-      <c r="R369">
-        <v>19</v>
-      </c>
-      <c r="S369">
-        <v>11</v>
-      </c>
-      <c r="T369">
-        <v>8</v>
-      </c>
-      <c r="U369">
-        <v>23</v>
-      </c>
-      <c r="V369">
-        <v>8</v>
-      </c>
-      <c r="X369">
-        <v>0.76</v>
-      </c>
-      <c r="Y369">
-        <v>2</v>
-      </c>
-      <c r="Z369" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA369">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>18</v>
-      </c>
-      <c r="G370">
-        <v>9</v>
-      </c>
-      <c r="H370">
-        <v>0</v>
-      </c>
-      <c r="I370">
-        <v>2</v>
-      </c>
-      <c r="J370">
-        <v>0</v>
-      </c>
-      <c r="K370">
-        <v>-2</v>
-      </c>
-      <c r="L370">
-        <v>93</v>
-      </c>
-      <c r="M370">
-        <v>57</v>
-      </c>
-      <c r="N370">
-        <v>19</v>
-      </c>
-      <c r="O370">
-        <v>1025</v>
-      </c>
-      <c r="P370">
-        <v>1022</v>
-      </c>
-      <c r="Q370">
-        <v>1020</v>
-      </c>
-      <c r="R370">
-        <v>11</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>11</v>
-      </c>
-      <c r="V370">
-        <v>3</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>6</v>
-      </c>
-      <c r="AA370">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>20</v>
-      </c>
-      <c r="G371">
-        <v>12</v>
-      </c>
-      <c r="H371">
-        <v>5</v>
-      </c>
-      <c r="I371">
-        <v>4</v>
-      </c>
-      <c r="J371">
-        <v>1</v>
-      </c>
-      <c r="K371">
-        <v>-3</v>
-      </c>
-      <c r="L371">
-        <v>81</v>
-      </c>
-      <c r="M371">
-        <v>49</v>
-      </c>
-      <c r="N371">
-        <v>14</v>
-      </c>
-      <c r="O371">
-        <v>1023</v>
-      </c>
-      <c r="P371">
-        <v>1020</v>
-      </c>
-      <c r="Q371">
-        <v>1014</v>
-      </c>
-      <c r="R371">
-        <v>10</v>
-      </c>
-      <c r="S371">
-        <v>10</v>
-      </c>
-      <c r="T371">
-        <v>10</v>
-      </c>
-      <c r="U371">
-        <v>32</v>
-      </c>
-      <c r="V371">
-        <v>10</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>6</v>
-      </c>
-      <c r="AA371">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>13</v>
-      </c>
-      <c r="G372">
-        <v>11</v>
-      </c>
-      <c r="H372">
-        <v>9</v>
-      </c>
-      <c r="I372">
-        <v>6</v>
-      </c>
-      <c r="J372">
-        <v>3</v>
-      </c>
-      <c r="K372">
-        <v>-2</v>
-      </c>
-      <c r="L372">
-        <v>82</v>
-      </c>
-      <c r="M372">
-        <v>55</v>
-      </c>
-      <c r="N372">
-        <v>24</v>
-      </c>
-      <c r="O372">
-        <v>1021</v>
-      </c>
-      <c r="P372">
-        <v>1018</v>
-      </c>
-      <c r="Q372">
-        <v>1011</v>
-      </c>
-      <c r="R372">
-        <v>11</v>
-      </c>
-      <c r="S372">
-        <v>9</v>
-      </c>
-      <c r="T372">
-        <v>7</v>
-      </c>
-      <c r="U372">
-        <v>35</v>
-      </c>
-      <c r="V372">
-        <v>21</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>7</v>
-      </c>
-      <c r="Z372" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA372">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>11</v>
-      </c>
-      <c r="G373">
-        <v>9</v>
-      </c>
-      <c r="H373">
-        <v>8</v>
-      </c>
-      <c r="I373">
-        <v>8</v>
-      </c>
-      <c r="J373">
-        <v>6</v>
-      </c>
-      <c r="K373">
-        <v>4</v>
-      </c>
-      <c r="L373">
-        <v>93</v>
-      </c>
-      <c r="M373">
-        <v>75</v>
-      </c>
-      <c r="N373">
-        <v>55</v>
-      </c>
-      <c r="O373">
-        <v>1016</v>
-      </c>
-      <c r="P373">
-        <v>1011</v>
-      </c>
-      <c r="Q373">
-        <v>1007</v>
-      </c>
-      <c r="R373">
-        <v>10</v>
-      </c>
-      <c r="S373">
-        <v>7</v>
-      </c>
-      <c r="T373">
-        <v>5</v>
-      </c>
-      <c r="U373">
-        <v>34</v>
-      </c>
-      <c r="V373">
-        <v>21</v>
-      </c>
-      <c r="X373">
-        <v>7.87</v>
-      </c>
-      <c r="Y373">
-        <v>8</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA373">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>11</v>
-      </c>
-      <c r="G374">
-        <v>7</v>
-      </c>
-      <c r="H374">
-        <v>4</v>
-      </c>
-      <c r="I374">
-        <v>7</v>
-      </c>
-      <c r="J374">
-        <v>5</v>
-      </c>
-      <c r="K374">
-        <v>3</v>
-      </c>
-      <c r="L374">
-        <v>93</v>
-      </c>
-      <c r="M374">
-        <v>82</v>
-      </c>
-      <c r="N374">
-        <v>61</v>
-      </c>
-      <c r="O374">
-        <v>1013</v>
-      </c>
-      <c r="P374">
-        <v>1010</v>
-      </c>
-      <c r="Q374">
-        <v>1006</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>7</v>
-      </c>
-      <c r="T374">
-        <v>3</v>
-      </c>
-      <c r="U374">
-        <v>19</v>
-      </c>
-      <c r="V374">
-        <v>10</v>
-      </c>
-      <c r="X374">
-        <v>17.02</v>
-      </c>
-      <c r="Y374">
-        <v>7</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>13</v>
-      </c>
-      <c r="G375">
-        <v>8</v>
-      </c>
-      <c r="H375">
-        <v>3</v>
-      </c>
-      <c r="I375">
-        <v>4</v>
-      </c>
-      <c r="J375">
-        <v>-1</v>
-      </c>
-      <c r="K375">
-        <v>-5</v>
-      </c>
-      <c r="L375">
-        <v>100</v>
-      </c>
-      <c r="M375">
-        <v>57</v>
-      </c>
-      <c r="N375">
-        <v>18</v>
-      </c>
-      <c r="O375">
-        <v>1015</v>
-      </c>
-      <c r="P375">
-        <v>1011</v>
-      </c>
-      <c r="Q375">
-        <v>1008</v>
-      </c>
-      <c r="R375">
-        <v>14</v>
-      </c>
-      <c r="S375">
-        <v>10</v>
-      </c>
-      <c r="T375">
-        <v>5</v>
-      </c>
-      <c r="U375">
-        <v>32</v>
-      </c>
-      <c r="V375">
-        <v>14</v>
-      </c>
-      <c r="X375">
-        <v>5.08</v>
-      </c>
-      <c r="Y375">
-        <v>3</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>13</v>
-      </c>
-      <c r="G376">
-        <v>7</v>
-      </c>
-      <c r="H376">
-        <v>2</v>
-      </c>
-      <c r="I376">
-        <v>1</v>
-      </c>
-      <c r="J376">
-        <v>-2</v>
-      </c>
-      <c r="K376">
-        <v>-6</v>
-      </c>
-      <c r="L376">
-        <v>93</v>
-      </c>
-      <c r="M376">
-        <v>55</v>
-      </c>
-      <c r="N376">
-        <v>17</v>
-      </c>
-      <c r="O376">
-        <v>1018</v>
-      </c>
-      <c r="P376">
-        <v>1017</v>
-      </c>
-      <c r="Q376">
-        <v>1013</v>
-      </c>
-      <c r="R376">
-        <v>19</v>
-      </c>
-      <c r="S376">
-        <v>11</v>
-      </c>
-      <c r="T376">
-        <v>7</v>
-      </c>
-      <c r="U376">
-        <v>19</v>
-      </c>
-      <c r="V376">
-        <v>6</v>
-      </c>
-      <c r="X376">
-        <v>0.51</v>
-      </c>
-      <c r="Y376">
-        <v>2</v>
-      </c>
-      <c r="Z376" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA376">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>14</v>
-      </c>
-      <c r="G377">
-        <v>6</v>
-      </c>
-      <c r="H377">
-        <v>-2</v>
-      </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
-      <c r="J377">
-        <v>-3</v>
-      </c>
-      <c r="K377">
-        <v>-8</v>
-      </c>
-      <c r="L377">
-        <v>93</v>
-      </c>
-      <c r="M377">
-        <v>49</v>
-      </c>
-      <c r="N377">
-        <v>12</v>
-      </c>
-      <c r="O377">
-        <v>1019</v>
-      </c>
-      <c r="P377">
-        <v>1016</v>
-      </c>
-      <c r="Q377">
-        <v>1013</v>
-      </c>
-      <c r="R377">
-        <v>14</v>
-      </c>
-      <c r="S377">
-        <v>11</v>
-      </c>
-      <c r="T377">
-        <v>10</v>
-      </c>
-      <c r="U377">
-        <v>14</v>
-      </c>
-      <c r="V377">
-        <v>5</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>2</v>
-      </c>
-      <c r="AA377">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>9</v>
-      </c>
-      <c r="G378">
-        <v>5</v>
-      </c>
-      <c r="H378">
-        <v>1</v>
-      </c>
-      <c r="I378">
-        <v>1</v>
-      </c>
-      <c r="J378">
-        <v>-1</v>
-      </c>
-      <c r="K378">
-        <v>-3</v>
-      </c>
-      <c r="L378">
-        <v>87</v>
-      </c>
-      <c r="M378">
-        <v>61</v>
-      </c>
-      <c r="N378">
-        <v>30</v>
-      </c>
-      <c r="O378">
-        <v>1022</v>
-      </c>
-      <c r="P378">
-        <v>1018</v>
-      </c>
-      <c r="Q378">
-        <v>1014</v>
-      </c>
-      <c r="R378">
-        <v>14</v>
-      </c>
-      <c r="S378">
-        <v>10</v>
-      </c>
-      <c r="T378">
-        <v>9</v>
-      </c>
-      <c r="U378">
-        <v>23</v>
-      </c>
-      <c r="V378">
-        <v>10</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>5</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA378">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>16</v>
-      </c>
-      <c r="G379">
-        <v>7</v>
-      </c>
-      <c r="H379">
-        <v>-2</v>
-      </c>
-      <c r="I379">
-        <v>-2</v>
-      </c>
-      <c r="J379">
-        <v>-4</v>
-      </c>
-      <c r="K379">
-        <v>-8</v>
-      </c>
-      <c r="L379">
-        <v>93</v>
-      </c>
-      <c r="M379">
-        <v>52</v>
-      </c>
-      <c r="N379">
-        <v>12</v>
-      </c>
-      <c r="O379">
-        <v>1024</v>
-      </c>
-      <c r="P379">
-        <v>1021</v>
-      </c>
-      <c r="Q379">
-        <v>1017</v>
-      </c>
-      <c r="R379">
-        <v>19</v>
-      </c>
-      <c r="S379">
-        <v>12</v>
-      </c>
-      <c r="T379">
-        <v>10</v>
-      </c>
-      <c r="U379">
-        <v>11</v>
-      </c>
-      <c r="V379">
-        <v>3</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>1</v>
-      </c>
-      <c r="AA379">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>17</v>
-      </c>
-      <c r="G380">
-        <v>8</v>
-      </c>
-      <c r="H380">
-        <v>-1</v>
-      </c>
-      <c r="I380">
-        <v>-1</v>
-      </c>
-      <c r="J380">
-        <v>-4</v>
-      </c>
-      <c r="K380">
-        <v>-9</v>
-      </c>
-      <c r="L380">
-        <v>93</v>
-      </c>
-      <c r="M380">
-        <v>47</v>
-      </c>
-      <c r="N380">
-        <v>8</v>
-      </c>
-      <c r="O380">
-        <v>1020</v>
-      </c>
-      <c r="P380">
-        <v>1018</v>
-      </c>
-      <c r="Q380">
-        <v>1014</v>
-      </c>
-      <c r="R380">
-        <v>19</v>
-      </c>
-      <c r="S380">
-        <v>14</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>29</v>
-      </c>
-      <c r="V380">
-        <v>6</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>4</v>
-      </c>
-      <c r="AA380">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>18</v>
-      </c>
-      <c r="G381">
-        <v>9</v>
-      </c>
-      <c r="H381">
-        <v>1</v>
-      </c>
-      <c r="I381">
-        <v>0</v>
-      </c>
-      <c r="J381">
-        <v>-2</v>
-      </c>
-      <c r="K381">
-        <v>-6</v>
-      </c>
-      <c r="L381">
-        <v>81</v>
-      </c>
-      <c r="M381">
-        <v>46</v>
-      </c>
-      <c r="N381">
-        <v>12</v>
-      </c>
-      <c r="O381">
-        <v>1018</v>
-      </c>
-      <c r="P381">
-        <v>1017</v>
-      </c>
-      <c r="Q381">
-        <v>1013</v>
-      </c>
-      <c r="R381">
-        <v>19</v>
-      </c>
-      <c r="S381">
-        <v>12</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>29</v>
-      </c>
-      <c r="V381">
-        <v>10</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>2</v>
-      </c>
-      <c r="AA381">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>20</v>
-      </c>
-      <c r="G382">
-        <v>10</v>
-      </c>
-      <c r="H382">
-        <v>1</v>
-      </c>
-      <c r="I382">
-        <v>1</v>
-      </c>
-      <c r="J382">
-        <v>-2</v>
-      </c>
-      <c r="K382">
-        <v>-6</v>
-      </c>
-      <c r="L382">
-        <v>81</v>
-      </c>
-      <c r="M382">
-        <v>46</v>
-      </c>
-      <c r="N382">
-        <v>11</v>
-      </c>
-      <c r="O382">
-        <v>1017</v>
-      </c>
-      <c r="P382">
-        <v>1015</v>
-      </c>
-      <c r="Q382">
-        <v>1012</v>
-      </c>
-      <c r="R382">
-        <v>14</v>
-      </c>
-      <c r="S382">
-        <v>13</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>23</v>
-      </c>
-      <c r="V382">
-        <v>5</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>1</v>
-      </c>
-      <c r="AA382">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>22</v>
-      </c>
-      <c r="G383">
-        <v>12</v>
-      </c>
-      <c r="H383">
-        <v>2</v>
-      </c>
-      <c r="I383">
-        <v>1</v>
-      </c>
-      <c r="J383">
-        <v>-1</v>
-      </c>
-      <c r="K383">
-        <v>-9</v>
-      </c>
-      <c r="L383">
-        <v>81</v>
-      </c>
-      <c r="M383">
-        <v>44</v>
-      </c>
-      <c r="N383">
-        <v>7</v>
-      </c>
-      <c r="O383">
-        <v>1018</v>
-      </c>
-      <c r="P383">
-        <v>1016</v>
-      </c>
-      <c r="Q383">
-        <v>1011</v>
-      </c>
-      <c r="R383">
-        <v>14</v>
-      </c>
-      <c r="S383">
-        <v>12</v>
-      </c>
-      <c r="T383">
-        <v>10</v>
-      </c>
-      <c r="U383">
-        <v>19</v>
-      </c>
-      <c r="V383">
-        <v>3</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>2</v>
-      </c>
-      <c r="AA383">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>22</v>
-      </c>
-      <c r="G384">
-        <v>12</v>
-      </c>
-      <c r="H384">
-        <v>1</v>
-      </c>
-      <c r="I384">
-        <v>3</v>
-      </c>
-      <c r="J384">
-        <v>0</v>
-      </c>
-      <c r="K384">
-        <v>-8</v>
-      </c>
-      <c r="L384">
-        <v>87</v>
-      </c>
-      <c r="M384">
-        <v>50</v>
-      </c>
-      <c r="N384">
-        <v>10</v>
-      </c>
-      <c r="O384">
-        <v>1019</v>
-      </c>
-      <c r="P384">
-        <v>1017</v>
-      </c>
-      <c r="Q384">
-        <v>1012</v>
-      </c>
-      <c r="R384">
-        <v>19</v>
-      </c>
-      <c r="S384">
-        <v>12</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>23</v>
-      </c>
-      <c r="V384">
-        <v>3</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>2</v>
-      </c>
-      <c r="AA384">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>22</v>
-      </c>
-      <c r="G385">
-        <v>12</v>
-      </c>
-      <c r="H385">
-        <v>3</v>
-      </c>
-      <c r="I385">
-        <v>2</v>
-      </c>
-      <c r="J385">
-        <v>1</v>
-      </c>
-      <c r="K385">
-        <v>-3</v>
-      </c>
-      <c r="L385">
-        <v>81</v>
-      </c>
-      <c r="M385">
-        <v>47</v>
-      </c>
-      <c r="N385">
-        <v>12</v>
-      </c>
-      <c r="O385">
-        <v>1020</v>
-      </c>
-      <c r="P385">
-        <v>1017</v>
-      </c>
-      <c r="Q385">
-        <v>1012</v>
-      </c>
-      <c r="R385">
-        <v>14</v>
-      </c>
-      <c r="S385">
-        <v>11</v>
-      </c>
-      <c r="T385">
-        <v>10</v>
-      </c>
-      <c r="U385">
-        <v>26</v>
-      </c>
-      <c r="V385">
-        <v>5</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>2</v>
-      </c>
-      <c r="AA385">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>22</v>
-      </c>
-      <c r="G386">
-        <v>13</v>
-      </c>
-      <c r="H386">
-        <v>4</v>
-      </c>
-      <c r="I386">
-        <v>4</v>
-      </c>
-      <c r="J386">
-        <v>0</v>
-      </c>
-      <c r="K386">
-        <v>-29</v>
-      </c>
-      <c r="L386">
-        <v>87</v>
-      </c>
-      <c r="M386">
-        <v>49</v>
-      </c>
-      <c r="N386">
-        <v>4</v>
-      </c>
-      <c r="O386">
-        <v>1019</v>
-      </c>
-      <c r="P386">
-        <v>1017</v>
-      </c>
-      <c r="Q386">
-        <v>1011</v>
-      </c>
-      <c r="R386">
-        <v>19</v>
-      </c>
-      <c r="S386">
-        <v>11</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>11</v>
-      </c>
-      <c r="V386">
-        <v>3</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>2</v>
-      </c>
-      <c r="AA386">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>21</v>
-      </c>
-      <c r="G387">
-        <v>13</v>
-      </c>
-      <c r="H387">
-        <v>6</v>
-      </c>
-      <c r="I387">
-        <v>8</v>
-      </c>
-      <c r="J387">
-        <v>4</v>
-      </c>
-      <c r="K387">
-        <v>2</v>
-      </c>
-      <c r="L387">
-        <v>77</v>
-      </c>
-      <c r="M387">
-        <v>51</v>
-      </c>
-      <c r="N387">
-        <v>22</v>
-      </c>
-      <c r="O387">
-        <v>1020</v>
-      </c>
-      <c r="P387">
-        <v>1017</v>
-      </c>
-      <c r="Q387">
-        <v>1012</v>
-      </c>
-      <c r="R387">
-        <v>14</v>
-      </c>
-      <c r="S387">
-        <v>10</v>
-      </c>
-      <c r="T387">
-        <v>8</v>
-      </c>
-      <c r="U387">
-        <v>26</v>
-      </c>
-      <c r="V387">
-        <v>5</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>5</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA387">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>15</v>
-      </c>
-      <c r="G388">
-        <v>11</v>
-      </c>
-      <c r="H388">
-        <v>8</v>
-      </c>
-      <c r="I388">
-        <v>11</v>
-      </c>
-      <c r="J388">
-        <v>8</v>
-      </c>
-      <c r="K388">
-        <v>7</v>
-      </c>
-      <c r="L388">
-        <v>94</v>
-      </c>
-      <c r="M388">
-        <v>83</v>
-      </c>
-      <c r="N388">
-        <v>53</v>
-      </c>
-      <c r="O388">
-        <v>1019</v>
-      </c>
-      <c r="P388">
-        <v>1016</v>
-      </c>
-      <c r="Q388">
-        <v>1011</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>8</v>
-      </c>
-      <c r="T388">
-        <v>6</v>
-      </c>
-      <c r="U388">
-        <v>29</v>
-      </c>
-      <c r="V388">
-        <v>5</v>
-      </c>
-      <c r="X388">
-        <v>5.08</v>
-      </c>
-      <c r="Y388">
-        <v>6</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA388">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -29986,7 +28529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29998,7 +28541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
